--- a/log/data_3o_2.xlsx
+++ b/log/data_3o_2.xlsx
@@ -486,37 +486,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.904332</t>
+          <t>1.51258</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.003744</t>
+          <t>0.04455</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000142</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.910487</t>
+          <t>1.55923</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -553,22 +549,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.859853</t>
+          <t>2.06071</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.001859</t>
+          <t>0.002165</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000205</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.864114</t>
+          <t>2.06506</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -605,22 +601,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.47043</t>
+          <t>1.40622</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.016756</t>
+          <t>0.017463</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>0.000178</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.48992</t>
+          <t>1.42621</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -657,22 +653,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.945459</t>
+          <t>1.57481</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.028216</t>
+          <t>0.029797</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.000178</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.976418</t>
+          <t>1.6071</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -709,22 +705,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.4396</t>
+          <t>1.9312</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.019564</t>
+          <t>0.020448</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000207</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.46168</t>
+          <t>1.95406</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -761,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.3783</t>
+          <t>2.09917</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.009039</t>
+          <t>0.009714</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000202</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.38983</t>
+          <t>2.1113</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -813,22 +809,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.14636</t>
+          <t>1.34634</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.02378</t>
+          <t>0.027608</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000135</t>
+          <t>0.000284</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.17262</t>
+          <t>1.37651</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -865,22 +861,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>1.62521</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.024881</t>
+          <t>0.025656</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000149</t>
+          <t>0.000263</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.64153</t>
+          <t>1.65343</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -917,22 +913,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.43429</t>
+          <t>1.86715</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.029161</t>
+          <t>0.039394</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.46582</t>
+          <t>1.90864</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -969,22 +965,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.673583</t>
+          <t>1.65446</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.019812</t>
+          <t>0.024329</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000131</t>
+          <t>0.000338</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.695667</t>
+          <t>1.6813</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1021,22 +1017,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.997071</t>
+          <t>1.47588</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.03751</t>
+          <t>0.045495</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.03739</t>
+          <t>1.52393</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1073,22 +1069,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.3694</t>
+          <t>2.0423</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.012259</t>
+          <t>0.019838</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000326</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.38419</t>
+          <t>2.0649</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1125,22 +1121,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.49341</t>
+          <t>1.83266</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.009753</t>
+          <t>0.015783</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.000148</t>
+          <t>0.00039</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.50576</t>
+          <t>1.85157</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1177,22 +1173,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.20662</t>
+          <t>1.86544</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.027092</t>
+          <t>0.024527</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>0.000195</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.23618</t>
+          <t>1.89248</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1229,22 +1225,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.09841</t>
+          <t>1.81203</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.002005</t>
+          <t>0.00223</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000155</t>
+          <t>0.000233</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.10284</t>
+          <t>1.81671</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1271,7 +1267,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1281,22 +1277,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.566699</t>
+          <t>1.70173</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.004543</t>
+          <t>0.014743</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000155</t>
+          <t>0.000192</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.573912</t>
+          <t>1.71885</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1333,22 +1329,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.13922</t>
+          <t>1.68393</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.052084</t>
+          <t>0.036664</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.19396</t>
+          <t>1.72322</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1385,22 +1381,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.6227</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.019774</t>
+          <t>0.019775</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000146</t>
+          <t>0.000216</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.16438</t>
+          <t>1.64508</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1437,22 +1433,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.22839</t>
+          <t>2.74437</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.018856</t>
+          <t>0.023761</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.24979</t>
+          <t>2.77057</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1489,22 +1485,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.49542</t>
+          <t>1.44231</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.011906</t>
+          <t>0.012678</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>0.000187</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.51014</t>
+          <t>1.45741</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1541,22 +1537,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.6533</t>
+          <t>2.60892</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.027051</t>
+          <t>0.016769</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000159</t>
+          <t>0.000202</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.68311</t>
+          <t>2.62818</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1589,22 +1585,22 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.16789</t>
+          <t>2.57346</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.036463</t>
+          <t>0.039015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.20601</t>
+          <t>2.61477</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1626,37 +1622,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>b3,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.0977</t>
+          <t>2.44738</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.040019</t>
+          <t>0.044587</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.000131</t>
+          <t>0.000169</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.13994</t>
+          <t>2.49394</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1693,22 +1685,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.747216</t>
+          <t>1.49315</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.011794</t>
+          <t>0.012529</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.000132</t>
+          <t>0.000178</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.7617</t>
+          <t>1.50826</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1745,22 +1737,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.968828</t>
+          <t>1.41545</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.024059</t>
+          <t>0.024981</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000194</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.995402</t>
+          <t>1.44285</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1797,22 +1789,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.35687</t>
+          <t>1.51917</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.020911</t>
+          <t>0.02121</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.00014</t>
+          <t>0.000188</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.38034</t>
+          <t>1.54287</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1849,22 +1841,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.5424</t>
+          <t>1.81712</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.005538</t>
+          <t>0.005823</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000175</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.55025</t>
+          <t>1.82506</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1901,22 +1893,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.25988</t>
+          <t>2.42718</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.010815</t>
+          <t>0.01172</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>0.000203</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.27328</t>
+          <t>2.44144</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1938,37 +1930,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.637037</t>
+          <t>1.75413</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.004879</t>
+          <t>0.031951</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.644438</t>
+          <t>1.78809</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2005,22 +1993,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.4389</t>
+          <t>1.52438</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.020971</t>
+          <t>0.026191</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>0.000193</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.46241</t>
+          <t>1.55302</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2042,33 +2030,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>b2,b3,b1</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.668951</t>
+          <t>1.84982</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.003286</t>
+          <t>0.017029</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.000142</t>
+          <t>0.000215</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.674754</t>
+          <t>1.86937</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2105,22 +2097,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.11495</t>
+          <t>1.84315</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.015002</t>
+          <t>0.015703</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.13256</t>
+          <t>1.86136</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2157,22 +2149,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.3499</t>
+          <t>1.91242</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.010864</t>
+          <t>0.011526</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000183</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.3633</t>
+          <t>1.92641</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2209,22 +2201,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.30008</t>
+          <t>2.04287</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.02527</t>
+          <t>0.02618</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>0.000189</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.32794</t>
+          <t>2.07155</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2261,22 +2253,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.918518</t>
+          <t>1.52438</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.014573</t>
+          <t>0.014847</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.000186</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.935638</t>
+          <t>1.54176</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2313,22 +2305,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.39554</t>
+          <t>1.3637</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.01209</t>
+          <t>0.012539</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.000148</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.41012</t>
+          <t>1.37881</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2365,22 +2357,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.50723</t>
+          <t>2.32352</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.022403</t>
+          <t>0.016377</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.000204</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.53226</t>
+          <t>2.34253</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2417,22 +2409,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.02785</t>
+          <t>1.89243</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.01565</t>
+          <t>0.016478</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000135</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.04602</t>
+          <t>1.91146</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2454,33 +2446,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>b2,b3,b1</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.610974</t>
+          <t>2.24732</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.004182</t>
+          <t>0.031469</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>0.000204</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.618082</t>
+          <t>2.28148</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2517,22 +2513,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.37904</t>
+          <t>1.58568</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.001678</t>
+          <t>0.001861</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.38311</t>
+          <t>1.58975</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2564,27 +2560,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>b3,b2,b1</t>
+          <t>b2,b3,b1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.915942</t>
+          <t>2.04316</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.01031</t>
+          <t>0.016265</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000199</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.928766</t>
+          <t>2.06171</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2621,22 +2617,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.12322</t>
+          <t>1.5393</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.016006</t>
+          <t>0.01672</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000133</t>
+          <t>0.000214</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.14186</t>
+          <t>1.55846</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2673,22 +2669,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.549374</t>
+          <t>1.33266</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.020344</t>
+          <t>0.021184</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.000125</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.572281</t>
+          <t>1.35639</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2725,22 +2721,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.06796</t>
+          <t>1.71885</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.021414</t>
+          <t>0.022155</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>0.000176</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.09188</t>
+          <t>1.74352</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2777,22 +2773,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.46903</t>
+          <t>2.21367</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.015134</t>
+          <t>0.015531</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>0.000207</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1.48684</t>
+          <t>2.23168</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2829,22 +2825,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.02547</t>
+          <t>1.90141</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.016155</t>
+          <t>0.017762</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.000227</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.04421</t>
+          <t>1.92185</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2881,22 +2877,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.04006</t>
+          <t>1.54816</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.03135</t>
+          <t>0.03305</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.000134</t>
+          <t>0.000208</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1.07403</t>
+          <t>1.58371</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2918,37 +2914,33 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.985754</t>
+          <t>2.75728</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.003428</t>
+          <t>0.059762</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.991661</t>
+          <t>2.81928</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2985,22 +2977,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.40119</t>
+          <t>2.08861</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.017333</t>
+          <t>0.026194</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000186</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1.42112</t>
+          <t>2.11737</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3037,22 +3029,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.28824</t>
+          <t>1.55034</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.00932</t>
+          <t>0.00992</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>0.00022</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.3001</t>
+          <t>1.56271</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3074,37 +3066,33 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.627659</t>
+          <t>1.56349</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.003929</t>
+          <t>0.04158</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.634264</t>
+          <t>1.60747</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3141,22 +3129,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.873237</t>
+          <t>1.23469</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.009335</t>
+          <t>0.009808</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000132</t>
+          <t>0.000177</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.885079</t>
+          <t>1.247</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3193,22 +3181,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.15486</t>
+          <t>1.92355</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.037907</t>
+          <t>0.041013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.19532</t>
+          <t>1.967</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3245,22 +3233,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.03028</t>
+          <t>1.28414</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.015999</t>
+          <t>0.01669</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>0.000175</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.04899</t>
+          <t>1.30313</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3297,22 +3285,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.27619</t>
+          <t>1.76291</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.024191</t>
+          <t>0.025631</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>0.000188</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.30295</t>
+          <t>1.791</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3334,33 +3322,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>b2,b3,b1</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.499665</t>
+          <t>1.57573</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.00435</t>
+          <t>0.021664</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.00013</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.506416</t>
+          <t>1.59958</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3382,37 +3374,33 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.786913</t>
+          <t>2.24987</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.004656</t>
+          <t>0.034998</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000183</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.794061</t>
+          <t>2.28705</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3434,37 +3422,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.616883</t>
+          <t>2.22922</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.004494</t>
+          <t>0.029636</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000134</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.624031</t>
+          <t>2.26124</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3501,22 +3485,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.34478</t>
+          <t>1.4755</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.019677</t>
+          <t>0.020948</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.00022</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.36703</t>
+          <t>1.49893</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3553,22 +3537,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.37349</t>
+          <t>1.89708</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.01693</t>
+          <t>0.017392</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000153</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.39301</t>
+          <t>1.91705</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3605,22 +3589,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1.47573</t>
+          <t>1.53344</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.019248</t>
+          <t>0.02036</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.000158</t>
+          <t>0.000192</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.49765</t>
+          <t>1.55617</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3657,22 +3641,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.27975</t>
+          <t>1.83267</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.005866</t>
+          <t>0.006264</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000168</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.28822</t>
+          <t>1.84136</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3709,22 +3693,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.13747</t>
+          <t>1.6332</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.02007</t>
+          <t>0.018316</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>0.000173</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.16019</t>
+          <t>1.65406</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3761,22 +3745,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1.44948</t>
+          <t>1.95105</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.010515</t>
+          <t>0.011078</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000146</t>
+          <t>0.000188</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.46261</t>
+          <t>1.96459</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3813,22 +3797,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.01159</t>
+          <t>1.27314</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.01731</t>
+          <t>0.018845</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.00019</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.03145</t>
+          <t>1.2944</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3850,37 +3834,33 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.891064</t>
+          <t>1.9099</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.004586</t>
+          <t>0.041474</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.898268</t>
+          <t>1.95376</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3917,22 +3897,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.904504</t>
+          <t>2.25234</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.022962</t>
+          <t>0.024037</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>0.000195</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.929974</t>
+          <t>2.27893</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3954,37 +3934,33 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.878137</t>
+          <t>2.02139</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.004165</t>
+          <t>0.044581</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.884781</t>
+          <t>2.06814</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4021,22 +3997,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.815843</t>
+          <t>1.79548</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.001936</t>
+          <t>0.002211</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000212</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.820347</t>
+          <t>1.8002</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4073,22 +4049,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.37461</t>
+          <t>1.75104</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.036068</t>
+          <t>0.03787</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.000148</t>
+          <t>0.000173</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.41323</t>
+          <t>1.79138</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4125,22 +4101,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.29533</t>
+          <t>1.64168</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.038056</t>
+          <t>0.039559</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000187</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.33577</t>
+          <t>1.68343</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4177,22 +4153,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.27745</t>
+          <t>1.66776</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.014925</t>
+          <t>0.017632</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>0.000306</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.29498</t>
+          <t>1.68799</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4229,22 +4205,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.935807</t>
+          <t>1.64223</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.024352</t>
+          <t>0.025351</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000177</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.962691</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4271,7 +4247,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4281,22 +4257,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.550515</t>
+          <t>2.00743</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.004681</t>
+          <t>0.035937</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000135</t>
+          <t>0.000189</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.5578</t>
+          <t>2.04587</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4333,22 +4309,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.39821</t>
+          <t>1.52917</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.008145</t>
+          <t>0.008912</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000142</t>
+          <t>0.000185</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.40895</t>
+          <t>1.54051</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4385,22 +4361,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.848848</t>
+          <t>1.20741</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.019249</t>
+          <t>0.019607</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.870692</t>
+          <t>1.22952</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4437,22 +4413,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.18596</t>
+          <t>1.476</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.011172</t>
+          <t>0.011905</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000196</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.19975</t>
+          <t>1.49043</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4489,22 +4465,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.978597</t>
+          <t>1.4775</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.020005</t>
+          <t>0.021254</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>0.000187</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.00095</t>
+          <t>1.50096</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4541,22 +4517,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.49341</t>
+          <t>1.57073</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.026239</t>
+          <t>0.031158</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>0.000189</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.5223</t>
+          <t>1.60435</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4583,7 +4559,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4593,22 +4569,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.91655</t>
+          <t>1.85049</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.047808</t>
+          <t>0.050957</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.967033</t>
+          <t>1.90393</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4645,22 +4621,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.56038</t>
+          <t>2.2998</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.012197</t>
+          <t>0.012827</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>0.000175</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1.57501</t>
+          <t>2.31481</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4687,7 +4663,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4697,22 +4673,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.796169</t>
+          <t>1.81595</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.003646</t>
+          <t>0.019503</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.80238</t>
+          <t>1.83764</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4739,7 +4715,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4749,22 +4725,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.730692</t>
+          <t>1.64519</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.004558</t>
+          <t>0.010033</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.000138</t>
+          <t>0.000185</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.73795</t>
+          <t>1.65761</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4801,22 +4777,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.925471</t>
+          <t>1.88409</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.001863</t>
+          <t>0.002139</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000186</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.929636</t>
+          <t>1.88844</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4853,22 +4829,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.2783</t>
+          <t>2.36839</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.01865</t>
+          <t>0.01991</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000135</t>
+          <t>0.000213</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.29957</t>
+          <t>2.39093</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4890,37 +4866,33 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.895768</t>
+          <t>1.82877</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.004452</t>
+          <t>0.045572</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.902875</t>
+          <t>1.87681</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4957,22 +4929,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.15264</t>
+          <t>1.34556</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.019953</t>
+          <t>0.019993</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.00015</t>
+          <t>0.000181</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1.17531</t>
+          <t>1.36808</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4999,7 +4971,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5009,22 +4981,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.652682</t>
+          <t>1.51979</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.004228</t>
+          <t>0.024304</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>0.00019</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.659533</t>
+          <t>1.54658</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5061,22 +5033,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1.54224</t>
+          <t>1.5258</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.015998</t>
+          <t>0.016542</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.00015</t>
+          <t>0.000174</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.56097</t>
+          <t>1.54485</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5113,22 +5085,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1.33431</t>
+          <t>1.72053</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.04708</t>
+          <t>0.048607</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.38403</t>
+          <t>1.77152</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5165,22 +5137,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.38647</t>
+          <t>1.65908</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.036408</t>
+          <t>0.037217</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.000196</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1.42561</t>
+          <t>1.69874</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5217,22 +5189,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1.13202</t>
+          <t>1.50803</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.021121</t>
+          <t>0.021791</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000177</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.1558</t>
+          <t>1.53248</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5269,22 +5241,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.868048</t>
+          <t>1.31015</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.001368</t>
+          <t>0.001769</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000149</t>
+          <t>0.000184</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.872015</t>
+          <t>1.31438</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5321,22 +5293,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1.29637</t>
+          <t>1.14782</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.026508</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.000151</t>
+          <t>0.000208</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.32475</t>
+          <t>1.17682</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5358,37 +5330,33 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>b2,b3,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.775022</t>
+          <t>1.88969</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.003789</t>
+          <t>0.053476</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000157</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.78136</t>
+          <t>1.94538</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5425,22 +5393,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.25315</t>
+          <t>1.59952</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.012186</t>
+          <t>0.012638</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.000148</t>
+          <t>0.000173</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.26799</t>
+          <t>1.61462</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5477,22 +5445,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.794384</t>
+          <t>1.57006</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.016811</t>
+          <t>0.017056</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000187</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.813716</t>
+          <t>1.58972</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5529,22 +5497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.940075</t>
+          <t>1.71538</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.03149</t>
+          <t>0.032435</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>0.000181</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.9741</t>
+          <t>1.7502</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5581,22 +5549,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1.03069</t>
+          <t>2.12789</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.015301</t>
+          <t>0.016048</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.000173</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1.04871</t>
+          <t>2.14637</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5633,22 +5601,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1.30305</t>
+          <t>1.44123</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.021656</t>
+          <t>0.021967</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000154</t>
+          <t>0.000202</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.32746</t>
+          <t>1.46566</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/log/data_3o_2.xlsx
+++ b/log/data_3o_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,25 +449,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Time Graph Const</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Time Graph Plan</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Time Path Plan</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Time Assign</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Time Total</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time Reloc Plan</t>
         </is>
@@ -486,38 +491,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.51258</t>
+          <t>0.0643717</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.04455</t>
+          <t>0.001886</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000148</t>
+          <t>9.78694</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.55923</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.88201</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.00031</t>
         </is>
       </c>
     </row>
@@ -539,37 +553,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.06071</t>
+          <t>0.0691437</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.002165</t>
+          <t>0.001677</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000205</t>
+          <t>10.1093</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.06506</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.2109</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.000282</t>
         </is>
       </c>
     </row>
@@ -591,37 +610,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.40622</t>
+          <t>0.0632496</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.017463</t>
+          <t>0.001104</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>9.53844</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.42621</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.63136</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.000532</t>
         </is>
       </c>
     </row>
@@ -643,37 +667,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.57481</t>
+          <t>0.0643798</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.029797</t>
+          <t>0.001183</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>9.33659</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.6071</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.42992</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.000293</t>
         </is>
       </c>
     </row>
@@ -695,37 +724,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.9312</t>
+          <t>0.0686955</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.020448</t>
+          <t>0.001012</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000207</t>
+          <t>9.51553</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.95406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.6112</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.00029</t>
         </is>
       </c>
     </row>
@@ -747,37 +781,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.09917</t>
+          <t>0.0671796</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.009714</t>
+          <t>0.001741</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>9.63441</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.1113</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.73139</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.000301</t>
         </is>
       </c>
     </row>
@@ -799,37 +838,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.34634</t>
+          <t>0.0729159</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.027608</t>
+          <t>0.001204</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000284</t>
+          <t>9.46971</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.37651</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.57106</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -851,37 +895,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.62521</t>
+          <t>0.0679435</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.025656</t>
+          <t>0.001188</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000263</t>
+          <t>9.58771</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.65343</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.68506</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.000292</t>
         </is>
       </c>
     </row>
@@ -903,37 +952,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.86715</t>
+          <t>0.0630775</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.039394</t>
+          <t>0.001763</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000198</t>
+          <t>9.49606</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.90864</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.58879</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.000387</t>
         </is>
       </c>
     </row>
@@ -955,37 +1009,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.65446</t>
+          <t>0.0614325</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.024329</t>
+          <t>0.001638</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000338</t>
+          <t>9.43568</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.6813</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.52499</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.000299</t>
         </is>
       </c>
     </row>
@@ -1012,32 +1071,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.47588</t>
+          <t>0.0637914</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.045495</t>
+          <t>0.001857</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>9.33928</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.52393</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.43309</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.000817</t>
         </is>
       </c>
     </row>
@@ -1059,37 +1123,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.0423</t>
+          <t>0.0706216</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.019838</t>
+          <t>0.001305</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000326</t>
+          <t>10.0301</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.0649</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.1323</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.000523</t>
         </is>
       </c>
     </row>
@@ -1111,37 +1180,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.83266</t>
+          <t>0.0635055</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.015783</t>
+          <t>0.001204</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.00039</t>
+          <t>9.34704</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.85157</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.43826</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.000296</t>
         </is>
       </c>
     </row>
@@ -1163,37 +1237,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.86544</t>
+          <t>0.0639655</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.024527</t>
+          <t>0.001344</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000195</t>
+          <t>9.46941</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.89248</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.56232</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.00032</t>
         </is>
       </c>
     </row>
@@ -1215,37 +1294,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.81203</t>
+          <t>0.0712587</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.00223</t>
+          <t>0.001409</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000233</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.81671</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.1123</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.001365</t>
         </is>
       </c>
     </row>
@@ -1272,32 +1356,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.70173</t>
+          <t>0.0616766</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.014743</t>
+          <t>0.001211</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000192</t>
+          <t>9.22849</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.71885</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.31923</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.00055</t>
         </is>
       </c>
     </row>
@@ -1319,37 +1408,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.68393</t>
+          <t>0.0639256</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.036664</t>
+          <t>0.000914</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>9.31883</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.72322</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.41041</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.000265</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1465,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.6227</t>
+          <t>0.0644606</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.019775</t>
+          <t>0.000975</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000216</t>
+          <t>9.64231</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.64508</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.73397</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.000278</t>
         </is>
       </c>
     </row>
@@ -1423,37 +1522,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.74437</t>
+          <t>0.0626345</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.023761</t>
+          <t>0.001522</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.000198</t>
+          <t>9.52318</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.77057</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.61661</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.000269</t>
         </is>
       </c>
     </row>
@@ -1480,32 +1584,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.44231</t>
+          <t>0.0638666</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.012678</t>
+          <t>0.001011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000187</t>
+          <t>9.41499</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.45741</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.50696</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.00029</t>
         </is>
       </c>
     </row>
@@ -1527,37 +1636,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.60892</t>
+          <t>0.0679806</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.016769</t>
+          <t>0.001485</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>9.49843</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.62818</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.59501</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.000315</t>
         </is>
       </c>
     </row>
@@ -1574,38 +1688,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.57346</t>
+          <t>0.0631185</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.039015</t>
+          <t>0.001316</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000154</t>
+          <t>9.43161</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.61477</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.52143</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.000312</t>
         </is>
       </c>
     </row>
@@ -1622,38 +1745,47 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.44738</t>
+          <t>0.0671574</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.044587</t>
+          <t>0.001147</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>9.58407</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.49394</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.68161</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.000469</t>
         </is>
       </c>
     </row>
@@ -1680,32 +1812,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.49315</t>
+          <t>0.0677025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.012529</t>
+          <t>0.00189</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>9.64452</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.50826</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.74443</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.001132</t>
         </is>
       </c>
     </row>
@@ -1727,37 +1864,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.41545</t>
+          <t>0.0626614</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.024981</t>
+          <t>0.001727</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000194</t>
+          <t>9.64008</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.44285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.73113</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.000296</t>
         </is>
       </c>
     </row>
@@ -1779,37 +1921,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.51917</t>
+          <t>0.0630633</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.02121</t>
+          <t>0.001648</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.000188</t>
+          <t>9.5711</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.54287</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.66193</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.000309</t>
         </is>
       </c>
     </row>
@@ -1831,37 +1978,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.81712</t>
+          <t>0.0663615</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.005823</t>
+          <t>0.001351</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>9.81444</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.82506</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.91249</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.000431</t>
         </is>
       </c>
     </row>
@@ -1883,37 +2035,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.42718</t>
+          <t>0.0655035</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.01172</t>
+          <t>0.001189</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000203</t>
+          <t>9.43878</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.44144</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.53308</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.000319</t>
         </is>
       </c>
     </row>
@@ -1930,38 +2087,47 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.75413</t>
+          <t>0.0712959</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.031951</t>
+          <t>0.002004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>9.60977</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.78809</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.71143</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.000279</t>
         </is>
       </c>
     </row>
@@ -1983,37 +2149,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.52438</t>
+          <t>0.0605825</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.026191</t>
+          <t>0.001737</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.000193</t>
+          <t>9.34043</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.55302</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.4304</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.00045</t>
         </is>
       </c>
     </row>
@@ -2040,32 +2211,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.84982</t>
+          <t>0.0656825</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.017029</t>
+          <t>0.001324</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.000215</t>
+          <t>9.46255</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.86937</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.55742</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.000286</t>
         </is>
       </c>
     </row>
@@ -2087,37 +2263,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.84315</t>
+          <t>0.0634894</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.015703</t>
+          <t>0.001113</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>9.23507</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.86136</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.32858</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.000339</t>
         </is>
       </c>
     </row>
@@ -2139,37 +2320,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.91242</t>
+          <t>0.0673746</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.011526</t>
+          <t>0.001364</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000183</t>
+          <t>9.41264</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.92641</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.50923</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.000284</t>
         </is>
       </c>
     </row>
@@ -2191,37 +2377,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.04287</t>
+          <t>0.0702075</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.02618</t>
+          <t>0.002475</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.000189</t>
+          <t>9.65714</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.07155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.76036</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.00033</t>
         </is>
       </c>
     </row>
@@ -2243,37 +2434,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.52438</t>
+          <t>0.0621875</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.014847</t>
+          <t>0.001052</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>9.39199</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.54176</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.48257</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.000271</t>
         </is>
       </c>
     </row>
@@ -2295,37 +2491,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.3637</t>
+          <t>0.0648904</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.012539</t>
+          <t>0.001639</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>9.50773</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.37881</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.60295</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.000312</t>
         </is>
       </c>
     </row>
@@ -2347,37 +2548,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.32352</t>
+          <t>0.0632125</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.016377</t>
+          <t>0.001997</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000204</t>
+          <t>9.37777</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.34253</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.47064</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.000468</t>
         </is>
       </c>
     </row>
@@ -2399,37 +2605,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.89243</t>
+          <t>0.0643946</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.016478</t>
+          <t>0.001563</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>9.40617</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.91146</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.50002</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.000393</t>
         </is>
       </c>
     </row>
@@ -2456,32 +2667,37 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.24732</t>
+          <t>0.0693054</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.031469</t>
+          <t>0.001522</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000204</t>
+          <t>9.47622</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.28148</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.57395</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.00032</t>
         </is>
       </c>
     </row>
@@ -2503,37 +2719,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.58568</t>
+          <t>0.0636364</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.001861</t>
+          <t>0.001372</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>9.22245</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.58975</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.31616</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.000419</t>
         </is>
       </c>
     </row>
@@ -2560,32 +2781,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.04316</t>
+          <t>0.0729018</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.016265</t>
+          <t>0.002067</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000199</t>
+          <t>10.0198</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.06171</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.1259</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.000354</t>
         </is>
       </c>
     </row>
@@ -2612,32 +2838,37 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.5393</t>
+          <t>0.0596057</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.01672</t>
+          <t>0.001102</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000214</t>
+          <t>9.40989</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.55846</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.4975</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.000303</t>
         </is>
       </c>
     </row>
@@ -2659,37 +2890,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.33266</t>
+          <t>0.0668426</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.021184</t>
+          <t>0.001481</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>9.32684</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1.35639</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.42364</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
         </is>
       </c>
     </row>
@@ -2711,37 +2947,42 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.71885</t>
+          <t>0.0634685</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.022155</t>
+          <t>0.001468</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>9.52551</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.74352</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.6185</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.000337</t>
         </is>
       </c>
     </row>
@@ -2763,37 +3004,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.21367</t>
+          <t>0.0708375</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.015531</t>
+          <t>0.001732</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.000207</t>
+          <t>10.2409</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.23168</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.3439</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.001215</t>
         </is>
       </c>
     </row>
@@ -2815,37 +3061,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.90141</t>
+          <t>0.0604645</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.017762</t>
+          <t>0.001343</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000227</t>
+          <t>9.4681</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.92185</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.55616</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.000301</t>
         </is>
       </c>
     </row>
@@ -2867,37 +3118,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.54816</t>
+          <t>0.0634925</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.03305</t>
+          <t>0.001115</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.000208</t>
+          <t>9.54819</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1.58371</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.63964</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.000317</t>
         </is>
       </c>
     </row>
@@ -2914,38 +3170,47 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.75728</t>
+          <t>0.0721419</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.059762</t>
+          <t>0.001127</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.000155</t>
+          <t>9.80832</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.81928</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.91066</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.001285</t>
         </is>
       </c>
     </row>
@@ -2967,37 +3232,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.08861</t>
+          <t>0.0607735</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.026194</t>
+          <t>0.001851</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>9.3363</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.11737</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.42659</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.000319</t>
         </is>
       </c>
     </row>
@@ -3019,37 +3289,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.55034</t>
+          <t>0.0611155</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.00992</t>
+          <t>0.001854</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.00022</t>
+          <t>9.37561</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.56271</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.46527</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.000295</t>
         </is>
       </c>
     </row>
@@ -3066,38 +3341,47 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.56349</t>
+          <t>0.0649106</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.04158</t>
+          <t>0.001251</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>9.48229</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1.60747</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.5842</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.000335</t>
         </is>
       </c>
     </row>
@@ -3119,37 +3403,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.23469</t>
+          <t>0.0660916</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.009808</t>
+          <t>0.001388</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>9.48089</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.57552</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.000287</t>
         </is>
       </c>
     </row>
@@ -3171,37 +3460,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.92355</t>
+          <t>0.0623735</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.041013</t>
+          <t>0.001081</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>9.58239</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.967</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.67416</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.000289</t>
         </is>
       </c>
     </row>
@@ -3223,37 +3517,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.28414</t>
+          <t>0.0707269</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.01669</t>
+          <t>0.002045</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>9.48727</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.30313</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.5877</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.000344</t>
         </is>
       </c>
     </row>
@@ -3275,37 +3574,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.76291</t>
+          <t>0.0644655</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.025631</t>
+          <t>0.001237</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000188</t>
+          <t>9.42083</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.791</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.51398</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.000415</t>
         </is>
       </c>
     </row>
@@ -3332,32 +3636,37 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.57573</t>
+          <t>0.0654755</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.021664</t>
+          <t>0.001371</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>9.41457</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.59958</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.51142</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.000283</t>
         </is>
       </c>
     </row>
@@ -3374,38 +3683,47 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2.24987</t>
+          <t>0.0693906</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.034998</t>
+          <t>0.001026</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>9.70962</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2.28705</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.80871</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.000302</t>
         </is>
       </c>
     </row>
@@ -3422,38 +3740,47 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.22922</t>
+          <t>0.0710939</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.029636</t>
+          <t>0.001299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>9.51737</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.26124</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.6191</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.000326</t>
         </is>
       </c>
     </row>
@@ -3475,37 +3802,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.4755</t>
+          <t>0.0648485</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.020948</t>
+          <t>0.00142</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.00022</t>
+          <t>9.55186</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.49893</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.64822</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.000314</t>
         </is>
       </c>
     </row>
@@ -3527,37 +3859,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.89708</t>
+          <t>0.0741461</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.017392</t>
+          <t>0.001115</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>9.93188</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.91705</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.0357</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.000644</t>
         </is>
       </c>
     </row>
@@ -3579,37 +3916,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1.53344</t>
+          <t>0.0647896</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.02036</t>
+          <t>0.001047</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.000192</t>
+          <t>9.73168</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.55617</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.82601</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.00043</t>
         </is>
       </c>
     </row>
@@ -3631,37 +3973,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.83267</t>
+          <t>0.0702497</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.006264</t>
+          <t>0.000919</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>10.5378</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.84136</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.6395</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.000311</t>
         </is>
       </c>
     </row>
@@ -3683,37 +4030,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.6332</t>
+          <t>0.0670246</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.018316</t>
+          <t>0.001713</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>9.54795</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.65406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.64513</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.000424</t>
         </is>
       </c>
     </row>
@@ -3735,37 +4087,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1.95105</t>
+          <t>0.0625454</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.011078</t>
+          <t>0.001601</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000188</t>
+          <t>9.47841</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.96459</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.56955</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.00026</t>
         </is>
       </c>
     </row>
@@ -3792,32 +4149,37 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.27314</t>
+          <t>0.0643566</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.018845</t>
+          <t>0.001549</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.00019</t>
+          <t>9.40993</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.2944</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.50255</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -3834,38 +4196,47 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.9099</t>
+          <t>0.0608494</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.041474</t>
+          <t>0.001231</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.000135</t>
+          <t>9.37996</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.95376</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.4686</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.00036</t>
         </is>
       </c>
     </row>
@@ -3887,37 +4258,42 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.25234</t>
+          <t>0.0637886</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.024037</t>
+          <t>0.001113</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000195</t>
+          <t>9.3695</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.27893</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.46207</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.000303</t>
         </is>
       </c>
     </row>
@@ -3934,38 +4310,47 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.02139</t>
+          <t>0.0609015</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.044581</t>
+          <t>0.00121</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000134</t>
+          <t>9.18133</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.06814</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.27017</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.000311</t>
         </is>
       </c>
     </row>
@@ -3987,37 +4372,42 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1.79548</t>
+          <t>0.0645915</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.002211</t>
+          <t>0.002223</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000212</t>
+          <t>9.47695</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1.8002</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.57052</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.000317</t>
         </is>
       </c>
     </row>
@@ -4039,37 +4429,42 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.75104</t>
+          <t>0.0648095</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.03787</t>
+          <t>0.001751</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>9.45564</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.79138</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.55024</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.000483</t>
         </is>
       </c>
     </row>
@@ -4091,37 +4486,42 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.64168</t>
+          <t>0.0702798</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.039559</t>
+          <t>0.001601</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000187</t>
+          <t>9.46235</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.68343</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.56048</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.000372</t>
         </is>
       </c>
     </row>
@@ -4143,37 +4543,42 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.66776</t>
+          <t>0.0656247</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.017632</t>
+          <t>0.001067</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000306</t>
+          <t>9.33235</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.68799</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.42633</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.000312</t>
         </is>
       </c>
     </row>
@@ -4200,32 +4605,37 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1.64223</t>
+          <t>0.0646616</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.025351</t>
+          <t>0.001343</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>9.48394</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.5781</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.000367</t>
         </is>
       </c>
     </row>
@@ -4252,32 +4662,37 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.00743</t>
+          <t>0.0696095</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.035937</t>
+          <t>0.001368</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000189</t>
+          <t>9.80706</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.04587</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.90661</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.000282</t>
         </is>
       </c>
     </row>
@@ -4299,37 +4714,42 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.52917</t>
+          <t>0.0641045</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.008912</t>
+          <t>0.001167</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000185</t>
+          <t>9.68607</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.54051</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.77958</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.000406</t>
         </is>
       </c>
     </row>
@@ -4356,32 +4776,37 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.20741</t>
+          <t>0.0616227</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.019607</t>
+          <t>0.001394</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>9.45772</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1.22952</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.54843</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.000685</t>
         </is>
       </c>
     </row>
@@ -4403,37 +4828,42 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>0.0498427</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.011905</t>
+          <t>0.001384</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000196</t>
+          <t>8.54221</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.49043</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.61841</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.000439</t>
         </is>
       </c>
     </row>
@@ -4460,32 +4890,37 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.4775</t>
+          <t>0.0522986</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.021254</t>
+          <t>0.00088</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000187</t>
+          <t>8.70428</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.50096</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.78242</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.000297</t>
         </is>
       </c>
     </row>
@@ -4507,37 +4942,42 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.57073</t>
+          <t>0.0502247</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.031158</t>
+          <t>0.001199</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000189</t>
+          <t>8.54478</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.60435</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.62121</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.000303</t>
         </is>
       </c>
     </row>
@@ -4564,32 +5004,37 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.85049</t>
+          <t>0.0500937</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.050957</t>
+          <t>0.000903</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>8.51938</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.90393</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.59542</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.00025</t>
         </is>
       </c>
     </row>
@@ -4611,37 +5056,42 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.2998</t>
+          <t>0.0501136</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.012827</t>
+          <t>0.001152</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>8.53003</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.31481</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.60629</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.00028</t>
         </is>
       </c>
     </row>
@@ -4668,32 +5118,37 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1.81595</t>
+          <t>0.0509187</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.019503</t>
+          <t>0.001218</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>8.6552</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.83764</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.73223</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.000264</t>
         </is>
       </c>
     </row>
@@ -4720,32 +5175,37 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1.64519</t>
+          <t>0.0512957</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.010033</t>
+          <t>0.001189</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.000185</t>
+          <t>8.63008</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.65761</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.70729</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.000433</t>
         </is>
       </c>
     </row>
@@ -4767,37 +5227,42 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.88409</t>
+          <t>0.0483576</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.002139</t>
+          <t>0.000975</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>8.66483</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.88844</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.7391</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.000264</t>
         </is>
       </c>
     </row>
@@ -4819,37 +5284,42 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.36839</t>
+          <t>0.0495147</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.01991</t>
+          <t>0.001106</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000213</t>
+          <t>8.5713</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.39093</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.64808</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0.000381</t>
         </is>
       </c>
     </row>
@@ -4866,38 +5336,47 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1.82877</t>
+          <t>0.0510506</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.045572</t>
+          <t>0.000944</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>8.57666</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.87681</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.65293</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.000274</t>
         </is>
       </c>
     </row>
@@ -4919,37 +5398,42 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.34556</t>
+          <t>0.0495627</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.019993</t>
+          <t>0.001059</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>8.53749</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1.36808</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.61311</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.000258</t>
         </is>
       </c>
     </row>
@@ -4976,32 +5460,37 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.51979</t>
+          <t>0.0526617</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.024304</t>
+          <t>0.001159</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.00019</t>
+          <t>8.73546</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.54658</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81411</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.000284</t>
         </is>
       </c>
     </row>
@@ -5023,37 +5512,42 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1.5258</t>
+          <t>0.0494357</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.016542</t>
+          <t>0.001245</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>8.524</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.54485</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.59942</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.000277</t>
         </is>
       </c>
     </row>
@@ -5075,37 +5569,42 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1.72053</t>
+          <t>0.0511936</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.048607</t>
+          <t>0.001158</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>8.74585</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.77152</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.82384</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.000323</t>
         </is>
       </c>
     </row>
@@ -5127,37 +5626,42 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.65908</t>
+          <t>0.0490577</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.037217</t>
+          <t>0.001165</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.000196</t>
+          <t>8.4558</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1.69874</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52991</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.000456</t>
         </is>
       </c>
     </row>
@@ -5179,37 +5683,42 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1.50803</t>
+          <t>0.0501106</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.021791</t>
+          <t>0.001275</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>8.56446</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.53248</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.64059</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.00026</t>
         </is>
       </c>
     </row>
@@ -5231,37 +5740,42 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1.31015</t>
+          <t>0.0494737</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.001769</t>
+          <t>0.001522</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>8.49557</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.31438</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.57122</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.000422</t>
         </is>
       </c>
     </row>
@@ -5283,37 +5797,42 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1.14782</t>
+          <t>0.0496046</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.026508</t>
+          <t>0.001036</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.000208</t>
+          <t>8.38667</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.17682</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.46204</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.000278</t>
         </is>
       </c>
     </row>
@@ -5330,38 +5849,47 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.88969</t>
+          <t>0.0524297</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.053476</t>
+          <t>0.001019</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>8.45375</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.94538</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.53211</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.000294</t>
         </is>
       </c>
     </row>
@@ -5383,37 +5911,42 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.59952</t>
+          <t>0.0489306</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.012638</t>
+          <t>0.001254</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>8.36497</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.61462</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.43958</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.000288</t>
         </is>
       </c>
     </row>
@@ -5435,37 +5968,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1.57006</t>
+          <t>0.0504607</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.017056</t>
+          <t>0.001023</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000187</t>
+          <t>8.4718</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.58972</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.54733</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.000263</t>
         </is>
       </c>
     </row>
@@ -5487,37 +6025,42 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.71538</t>
+          <t>0.0503647</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.032435</t>
+          <t>0.001103</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>8.38714</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1.7502</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.46296</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0.0003</t>
         </is>
       </c>
     </row>
@@ -5539,37 +6082,42 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2.12789</t>
+          <t>0.0510557</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.016048</t>
+          <t>0.001146</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>8.36495</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2.14637</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.44173</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.000355</t>
         </is>
       </c>
     </row>
@@ -5591,37 +6139,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1.44123</t>
+          <t>0.0485027</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.021967</t>
+          <t>0.000954</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>8.37544</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.46566</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.4491</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.000303</t>
         </is>
       </c>
     </row>

--- a/log/data_3o_2.xlsx
+++ b/log/data_3o_2.xlsx
@@ -506,17 +506,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00821396</t>
+          <t>0.00341701</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.35944</t>
+          <t>0.012193</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.37226</t>
+          <t>0.019004</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.000127</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00589499</t>
+          <t>0.00348501</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000169</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.796994</t>
+          <t>0.018024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.80672</t>
+          <t>0.024941</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00937894</t>
+          <t>0.00355401</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.3991</t>
+          <t>0.006031</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.4137</t>
+          <t>0.013284</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5.6e-05</t>
+          <t>3.8e-05</t>
         </is>
       </c>
     </row>
@@ -677,17 +677,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00684597</t>
+          <t>0.00325501</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.914764</t>
+          <t>0.003916</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.92646</t>
+          <t>0.010815</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00760597</t>
+          <t>0.00343401</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000143</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.38295</t>
+          <t>0.003957</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.39526</t>
+          <t>0.010894</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00791997</t>
+          <t>0.00343701</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.31401</t>
+          <t>0.005526</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.32661</t>
+          <t>0.012488</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00822395</t>
+          <t>0.00338401</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.000161</t>
+          <t>0.00015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.10391</t>
+          <t>0.004259</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.11688</t>
+          <t>0.01124</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00853395</t>
+          <t>0.00353001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.000188</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.52215</t>
+          <t>0.001526</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.53576</t>
+          <t>0.008742</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>3.9e-05</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00772496</t>
+          <t>0.00342001</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.39588</t>
+          <t>0.001583</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.40817</t>
+          <t>0.00846</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00773697</t>
+          <t>0.00357401</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.1012</t>
+          <t>0.022778</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.11346</t>
+          <t>0.029867</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.000122</t>
+          <t>0.00011</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00910195</t>
+          <t>0.00351301</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.38678</t>
+          <t>0.020464</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.40095</t>
+          <t>0.027642</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00784297</t>
+          <t>0.00345901</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.29971</t>
+          <t>0.003655</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.31214</t>
+          <t>0.010686</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1190,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.00854196</t>
+          <t>0.00358701</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.41797</t>
+          <t>0.004396</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.43143</t>
+          <t>0.011564</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1247,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00815895</t>
+          <t>0.00341601</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.16474</t>
+          <t>0.001639</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.17767</t>
+          <t>0.008733</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00749997</t>
+          <t>0.00364001</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.04117</t>
+          <t>0.00949</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.05338</t>
+          <t>0.016655</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.00766996</t>
+          <t>0.00349101</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.942785</t>
+          <t>0.015782</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.955321</t>
+          <t>0.02295</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.000109</t>
+          <t>6.3e-05</t>
         </is>
       </c>
     </row>
@@ -1418,17 +1418,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.00747197</t>
+          <t>0.00351801</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.08882</t>
+          <t>0.007655</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1438,12 +1438,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.10105</t>
+          <t>0.014956</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.00712497</t>
+          <t>0.00351301</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000143</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.0714</t>
+          <t>0.001455</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.0833</t>
+          <t>0.008632</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -1532,17 +1532,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.00775996</t>
+          <t>0.00353001</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.18122</t>
+          <t>0.003235</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1552,12 +1552,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.19408</t>
+          <t>0.010461</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.00857596</t>
+          <t>0.00360001</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.44466</t>
+          <t>0.010225</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.4582</t>
+          <t>0.017449</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000131</t>
+          <t>6.7e-05</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.00770197</t>
+          <t>0.00354401</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000151</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.58797</t>
+          <t>0.00263</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.60047</t>
+          <t>0.009855</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.00729797</t>
+          <t>0.00351001</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000163</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.29354</t>
+          <t>0.016052</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.30543</t>
+          <t>0.022991</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8.1e-05</t>
+          <t>6.9e-05</t>
         </is>
       </c>
     </row>
@@ -1760,17 +1760,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00753696</t>
+          <t>0.00414801</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.14124</t>
+          <t>0.016426</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.15356</t>
+          <t>0.02439</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>6.7e-05</t>
         </is>
       </c>
     </row>
@@ -1817,17 +1817,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.00793695</t>
+          <t>0.00355201</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.27637</t>
+          <t>0.012144</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1.2893</t>
+          <t>0.019339</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>9.6e-05</t>
         </is>
       </c>
     </row>
@@ -1874,17 +1874,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.00728297</t>
+          <t>0.00351001</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.000165</t>
+          <t>0.000153</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.23075</t>
+          <t>0.007341</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.24272</t>
+          <t>0.014504</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>7.1e-05</t>
         </is>
       </c>
     </row>
@@ -1931,17 +1931,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00755796</t>
+          <t>0.00346001</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.32405</t>
+          <t>0.00145</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.33636</t>
+          <t>0.008497</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.00788396</t>
+          <t>0.00360201</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.47852</t>
+          <t>0.00379</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.49088</t>
+          <t>0.010719</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -2045,17 +2045,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.00795595</t>
+          <t>0.00354701</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.22845</t>
+          <t>0.00105</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.24123</t>
+          <t>0.008328</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.00704797</t>
+          <t>0.00345501</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.00016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.0778</t>
+          <t>0.015805</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1.08942</t>
+          <t>0.022721</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>7e-05</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.00830695</t>
+          <t>0.00348201</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.37973</t>
+          <t>0.004151</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.39278</t>
+          <t>0.011299</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.00701597</t>
+          <t>0.00344001</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.08039</t>
+          <t>0.017346</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.09218</t>
+          <t>0.024348</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.000125</t>
+          <t>6.7e-05</t>
         </is>
       </c>
     </row>
@@ -2273,17 +2273,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.00877993</t>
+          <t>0.00347301</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.06604</t>
+          <t>0.002094</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.07992</t>
+          <t>0.009262</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>3.8e-05</t>
         </is>
       </c>
     </row>
@@ -2330,17 +2330,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.00728797</t>
+          <t>0.00347801</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000153</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.27775</t>
+          <t>0.001282</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1.28976</t>
+          <t>0.00842</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2387,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.00796696</t>
+          <t>0.00350701</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.000185</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.23789</t>
+          <t>0.003606</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.25069</t>
+          <t>0.010699</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
     </row>
@@ -2444,17 +2444,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.00682098</t>
+          <t>0.00340001</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000179</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.860632</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.872135</t>
+          <t>0.010338</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2501,17 +2501,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.00761398</t>
+          <t>0.00347801</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000146</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.31946</t>
+          <t>0.004199</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1.33191</t>
+          <t>0.011206</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.6e-05</t>
         </is>
       </c>
     </row>
@@ -2558,17 +2558,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.00855696</t>
+          <t>0.00348201</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.000191</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.41784</t>
+          <t>0.00181</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1.43139</t>
+          <t>0.009126</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.00735997</t>
+          <t>0.00344301</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.971892</t>
+          <t>0.001325</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2635,12 +2635,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.983919</t>
+          <t>0.008478</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>5.2e-05</t>
         </is>
       </c>
     </row>
@@ -2672,17 +2672,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.00738796</t>
+          <t>0.00348001</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.000156</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.01988</t>
+          <t>0.016038</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1.03216</t>
+          <t>0.023244</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>6.8e-05</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.00792197</t>
+          <t>0.00363101</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.28853</t>
+          <t>0.010181</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2749,12 +2749,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.30108</t>
+          <t>0.017317</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>7.5e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -2786,17 +2786,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.00735696</t>
+          <t>0.00378602</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.03279</t>
+          <t>0.01706</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2806,12 +2806,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1.04495</t>
+          <t>0.024639</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.000125</t>
+          <t>6.6e-05</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2843,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.00886194</t>
+          <t>0.00368401</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.000172</t>
+          <t>0.000207</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.4169</t>
+          <t>0.016756</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2863,12 +2863,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1.43078</t>
+          <t>0.024121</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.00013</t>
+          <t>7e-05</t>
         </is>
       </c>
     </row>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.00656098</t>
+          <t>0.00340401</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.00015</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.829928</t>
+          <t>0.018976</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.841211</t>
+          <t>0.025941</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>8e-05</t>
+          <t>7.2e-05</t>
         </is>
       </c>
     </row>
@@ -2957,17 +2957,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.00834295</t>
+          <t>0.00355001</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.000165</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.35259</t>
+          <t>0.007472</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2977,12 +2977,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1.3658</t>
+          <t>0.014639</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>6.9e-05</t>
         </is>
       </c>
     </row>
@@ -3014,17 +3014,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.00825395</t>
+          <t>0.00346901</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.32366</t>
+          <t>0.001583</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.33677</t>
+          <t>0.008711</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.00743396</t>
+          <t>0.00338601</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.961116</t>
+          <t>0.001279</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.973339</t>
+          <t>0.008358</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3128,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.00746196</t>
+          <t>0.00341801</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.000172</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.02697</t>
+          <t>0.004296</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.03919</t>
+          <t>0.011317</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
     </row>
@@ -3185,17 +3185,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.00832494</t>
+          <t>0.00358501</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000182</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.51812</t>
+          <t>0.01056</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3205,12 +3205,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1.53115</t>
+          <t>0.01775</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3242,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.00804096</t>
+          <t>0.00345301</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.3505</t>
+          <t>0.00126</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3262,12 +3262,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1.36338</t>
+          <t>0.008426</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
     </row>
@@ -3299,17 +3299,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.00852595</t>
+          <t>0.00342201</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000146</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.22168</t>
+          <t>0.00123</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.23506</t>
+          <t>0.008292</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>4.8e-05</t>
         </is>
       </c>
     </row>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.00694797</t>
+          <t>0.00346701</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.982924</t>
+          <t>0.012764</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3376,12 +3376,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.994603</t>
+          <t>0.019871</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -3413,17 +3413,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.00683198</t>
+          <t>0.00334601</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.000158</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.81736</t>
+          <t>0.004294</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.828884</t>
+          <t>0.011201</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -3470,17 +3470,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.00826395</t>
+          <t>0.00347901</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.000183</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.13037</t>
+          <t>0.009066</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3490,12 +3490,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1.14348</t>
+          <t>0.016159</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
     </row>
@@ -3527,17 +3527,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.00752997</t>
+          <t>0.00349401</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.96626</t>
+          <t>0.001088</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.978461</t>
+          <t>0.008173</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -3584,17 +3584,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.00785497</t>
+          <t>0.00342501</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.000163</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.20085</t>
+          <t>0.001082</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.21345</t>
+          <t>0.008216</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.00649398</t>
+          <t>0.00340701</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.00018</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.714849</t>
+          <t>0.026121</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.725729</t>
+          <t>0.03295</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>6.9e-05</t>
         </is>
       </c>
     </row>
@@ -3698,17 +3698,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.00834795</t>
+          <t>0.00355101</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1.45164</t>
+          <t>0.009544</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.46478</t>
+          <t>0.016548</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
     </row>
@@ -3755,17 +3755,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.00753297</t>
+          <t>0.00356401</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1.11389</t>
+          <t>0.018869</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3775,12 +3775,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1.12619</t>
+          <t>0.026037</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>6.8e-05</t>
         </is>
       </c>
     </row>
@@ -3812,17 +3812,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.00719397</t>
+          <t>0.00600899</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.000228</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.30461</t>
+          <t>0.002242</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.31658</t>
+          <t>0.013448</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
     </row>
@@ -3869,17 +3869,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.00797396</t>
+          <t>0.00356601</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.000165</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.31611</t>
+          <t>0.002032</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1.32895</t>
+          <t>0.00934</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.00853796</t>
+          <t>0.00349801</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.000172</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.37365</t>
+          <t>0.001731</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.38712</t>
+          <t>0.009008</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3983,17 +3983,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.00756997</t>
+          <t>0.00344101</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.22198</t>
+          <t>0.00149</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1.23431</t>
+          <t>0.008638</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -4040,17 +4040,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.00728197</t>
+          <t>0.00348701</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1.09568</t>
+          <t>0.001162</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1.10775</t>
+          <t>0.008398</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4097,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.00893294</t>
+          <t>0.00354301</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.38468</t>
+          <t>0.001316</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1.39854</t>
+          <t>0.008542</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
     </row>
@@ -4154,17 +4154,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.00820195</t>
+          <t>0.00356701</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1.41316</t>
+          <t>0.017108</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4174,12 +4174,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1.42621</t>
+          <t>0.02437</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
     </row>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.00838896</t>
+          <t>0.00358101</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.53735</t>
+          <t>0.01723</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1.55052</t>
+          <t>0.024437</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
     </row>
@@ -4268,17 +4268,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.00799195</t>
+          <t>0.00360401</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000174</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.2747</t>
+          <t>0.016677</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1.28786</t>
+          <t>0.023969</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>7e-05</t>
         </is>
       </c>
     </row>
@@ -4325,17 +4325,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.00818595</t>
+          <t>0.00385201</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.00015</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1.30633</t>
+          <t>0.018038</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.31928</t>
+          <t>0.025347</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.00663998</t>
+          <t>0.00350701</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.777297</t>
+          <t>0.014997</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4402,12 +4402,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.788695</t>
+          <t>0.022121</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.000127</t>
+          <t>8.5e-05</t>
         </is>
       </c>
     </row>
@@ -4439,17 +4439,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.00809095</t>
+          <t>0.00346701</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.33798</t>
+          <t>0.005533</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1.35097</t>
+          <t>0.012602</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.00758297</t>
+          <t>0.00349601</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.00019</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.2539</t>
+          <t>0.002985</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1.26624</t>
+          <t>0.009884</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -4553,17 +4553,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.00773697</t>
+          <t>0.00350601</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1.22034</t>
+          <t>0.003598</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.23283</t>
+          <t>0.010675</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.00813695</t>
+          <t>0.00352801</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.29445</t>
+          <t>0.023368</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4630,12 +4630,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1.30759</t>
+          <t>0.030526</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
     </row>
@@ -4667,17 +4667,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.00614099</t>
+          <t>0.00349701</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1.02661</t>
+          <t>0.017303</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1.0369</t>
+          <t>0.024428</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.000121</t>
+          <t>7e-05</t>
         </is>
       </c>
     </row>
@@ -4724,17 +4724,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.00810396</t>
+          <t>0.00362301</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000165</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1.35312</t>
+          <t>0.011774</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>1.36628</t>
+          <t>0.01906</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>7.2e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -4781,17 +4781,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.00734496</t>
+          <t>0.00353701</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.07858</t>
+          <t>0.016266</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1.09077</t>
+          <t>0.023403</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>6.4e-05</t>
         </is>
       </c>
     </row>
@@ -4838,17 +4838,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.00798896</t>
+          <t>0.00352001</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>0.001801</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.13894</t>
+          <t>0.009104</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4895,17 +4895,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.00738697</t>
+          <t>0.00358301</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>0.000162</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.40035</t>
+          <t>0.016147</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1.4124</t>
+          <t>0.023214</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>6.6e-05</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.00849095</t>
+          <t>0.00357401</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1.40996</t>
+          <t>0.005026</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4972,12 +4972,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1.42346</t>
+          <t>0.012289</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>3.8e-05</t>
         </is>
       </c>
     </row>
@@ -5009,17 +5009,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.00752197</t>
+          <t>0.00349401</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.000156</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.50799</t>
+          <t>0.017277</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5029,12 +5029,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1.52041</t>
+          <t>0.024352</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
     </row>
@@ -5066,17 +5066,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.00819196</t>
+          <t>0.00353701</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1.49947</t>
+          <t>0.001386</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5086,12 +5086,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1.51217</t>
+          <t>0.008305</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
     </row>
@@ -5123,17 +5123,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.00807096</t>
+          <t>0.00374301</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1.43923</t>
+          <t>0.014036</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5143,12 +5143,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1.45184</t>
+          <t>0.021305</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>0.000103</t>
         </is>
       </c>
     </row>
@@ -5180,17 +5180,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.00719897</t>
+          <t>0.00344201</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.000162</t>
+          <t>0.000153</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1.02693</t>
+          <t>0.018073</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5200,12 +5200,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1.03889</t>
+          <t>0.025171</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5237,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.00708697</t>
+          <t>0.00354301</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.897462</t>
+          <t>0.009227</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5257,12 +5257,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.909077</t>
+          <t>0.016204</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>7.9e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
     </row>
@@ -5294,17 +5294,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.00785796</t>
+          <t>0.00345901</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.000193</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1.24247</t>
+          <t>0.001193</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1.2554</t>
+          <t>0.008465</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5351,17 +5351,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.00751097</t>
+          <t>0.00356501</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1.26012</t>
+          <t>0.016497</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1.27242</t>
+          <t>0.023743</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>7.8e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
     </row>
@@ -5408,17 +5408,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.00722397</t>
+          <t>0.00345101</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1.07137</t>
+          <t>0.003671</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5428,12 +5428,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1.0833</t>
+          <t>0.010732</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>4.8e-05</t>
         </is>
       </c>
     </row>
@@ -5465,17 +5465,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.00661497</t>
+          <t>0.006197</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.000163</t>
+          <t>0.000272</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.771822</t>
+          <t>0.029711</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5485,12 +5485,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.783277</t>
+          <t>0.04108</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.000131</t>
+          <t>9.4e-05</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.00915993</t>
+          <t>0.00360501</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000169</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1.43091</t>
+          <t>0.00163</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1.44498</t>
+          <t>0.008954</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>4.5e-05</t>
         </is>
       </c>
     </row>
@@ -5579,17 +5579,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.00714297</t>
+          <t>0.00347301</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.000172</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1.30165</t>
+          <t>0.003367</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1.31365</t>
+          <t>0.010498</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -5636,17 +5636,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.00737497</t>
+          <t>0.00346501</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1.3012</t>
+          <t>0.004227</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1.31339</t>
+          <t>0.011355</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.00717997</t>
+          <t>0.00345901</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1.0676</t>
+          <t>0.005561</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1.07956</t>
+          <t>0.012607</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>4.1e-05</t>
         </is>
       </c>
     </row>
@@ -5750,17 +5750,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.00676798</t>
+          <t>0.00359101</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.000163</t>
+          <t>0.00015</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.802625</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5770,12 +5770,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.81401</t>
+          <t>0.015526</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>7.6e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -5807,17 +5807,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.00869796</t>
+          <t>0.00348701</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.22709</t>
+          <t>0.004994</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5827,12 +5827,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1.24049</t>
+          <t>0.012096</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
     </row>
@@ -5864,17 +5864,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.00693297</t>
+          <t>0.00348001</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1.1872</t>
+          <t>0.009641</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5884,12 +5884,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1.19862</t>
+          <t>0.016555</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>7.7e-05</t>
+          <t>0.000101</t>
         </is>
       </c>
     </row>
@@ -5921,17 +5921,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.00822695</t>
+          <t>0.00355001</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1.18495</t>
+          <t>0.001399</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>1.19806</t>
+          <t>0.008708</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>4.5e-05</t>
         </is>
       </c>
     </row>
@@ -5978,17 +5978,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.00675097</t>
+          <t>0.006295</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.000163</t>
+          <t>0.000247</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.745448</t>
+          <t>0.003152</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5998,12 +5998,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.756816</t>
+          <t>0.015202</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>5.2e-05</t>
         </is>
       </c>
     </row>
@@ -6035,17 +6035,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.00678998</t>
+          <t>0.00335201</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.881224</t>
+          <t>0.006808</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6055,12 +6055,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.892602</t>
+          <t>0.013713</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -6092,17 +6092,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.00697197</t>
+          <t>0.00355001</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.979739</t>
+          <t>0.004123</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6112,12 +6112,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.991535</t>
+          <t>0.011208</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.00817396</t>
+          <t>0.00354101</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1.20377</t>
+          <t>0.00142</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6169,12 +6169,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.21679</t>
+          <t>0.008712</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>5.4e-05</t>
         </is>
       </c>
     </row>
